--- a/out/artifacts/RNLP_jar/src/main/person.xlsx
+++ b/out/artifacts/RNLP_jar/src/main/person.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Лица" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -74,19 +74,55 @@
     <t>город Ленинград улица Ленина 1 кв 1</t>
   </si>
   <si>
-    <t>город Москва проспект Московский 2 д 2</t>
+    <t>+79111111111</t>
+  </si>
+  <si>
+    <t>+79222222222</t>
+  </si>
+  <si>
+    <t>0xffdfdf</t>
+  </si>
+  <si>
+    <t>0dfdfd</t>
+  </si>
+  <si>
+    <t>Сидоров</t>
+  </si>
+  <si>
+    <t>Сергей</t>
+  </si>
+  <si>
+    <t>Сергеевич</t>
+  </si>
+  <si>
+    <t>Дедук</t>
+  </si>
+  <si>
+    <t>Василий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Васильевич </t>
+  </si>
+  <si>
+    <t>04.04.2007</t>
+  </si>
+  <si>
+    <t>03.03.1978</t>
+  </si>
+  <si>
+    <t>02.02.1994</t>
   </si>
   <si>
     <t>01.01.2001</t>
   </si>
   <si>
-    <t>02.02.1994</t>
-  </si>
-  <si>
-    <t>+79222222222</t>
-  </si>
-  <si>
-    <t>+79111111111</t>
+    <t>город Рязань улица Толстого 4 кв 4</t>
+  </si>
+  <si>
+    <t>город Москва проспект Московский 2 кв 2</t>
+  </si>
+  <si>
+    <t>город Краснодар улица Большевиков 3 кв 3</t>
   </si>
 </sst>
 </file>
@@ -122,10 +158,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -406,17 +448,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="43.28515625" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -432,13 +475,13 @@
       <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -455,14 +498,14 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
+      <c r="E2" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -478,14 +521,60 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="2">
+        <v>89333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="3">
+        <v>89444444444</v>
       </c>
     </row>
   </sheetData>
